--- a/biology/Botanique/Tillandsia_leucolepis/Tillandsia_leucolepis.xlsx
+++ b/biology/Botanique/Tillandsia_leucolepis/Tillandsia_leucolepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia leucolepis L.B.Sm. est une plante de la famille des Bromeliaceae.
 L'épithète leucolepis signifie « à écailles blanches » et se rapporte à l'aspect de l'épiderme des feuilles.
@@ -512,10 +524,12 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia leucolepis L.B.Sm., in Phytologia 8(9): 497, tab. 1, fig. 1-3 (1963)
-Diagnose originale[1] :
+Diagnose originale :
 « A T. calothyrso Mez, cui affinis, inflorescentia laxa, bracteis florigeris ecarinatis, sepalis liberis differt. »
 Type :
 leg. T. Mac-Dougall, n° 280, 1962-03-15 ; « Mexico: Oaxaca: Cultivated, probably of local origin » ; Holotypus US National Herbarium (US 00027065)
@@ -549,7 +563,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -579,7 +595,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Racines peu développées mais fonctionnelles.
 </t>
@@ -610,7 +628,9 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Typologie : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux.
 Habitat : inconnu (plante découverte en culture et - à confirmer - non encore retrouvée en situation naturelle)
@@ -642,11 +662,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique centrale :
- Mexique[2]
-Oaxaca[1]</t>
+ Mexique
+Oaxaca</t>
         </is>
       </c>
     </row>
@@ -674,9 +696,11 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia leucolepis se cultive aisément[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia leucolepis se cultive aisément.
 </t>
         </is>
       </c>
